--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/Lab1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josecarrillo/PycharmProjects/HOLA/cs151-lab1-lab1-jose-liv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0019066A-ADAB-2D40-B7F1-BC2C56C35A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925F0083-5380-FF49-B27A-65CC2C7DD24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67920" windowHeight="28300" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Test Description</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Price is 1, we need 1 gallon</t>
-  </si>
-  <si>
-    <t>insert Excel formula here</t>
   </si>
   <si>
     <t>Zero miles, price is 1</t>
@@ -128,24 +125,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color rgb="FFA9B7C6"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -237,6 +219,24 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color rgb="FFA9B7C6"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -251,14 +251,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E40A2E88-C760-264E-9266-04B1334E3A59}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E40A2E88-C760-264E-9266-04B1334E3A59}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E5" xr:uid="{E40A2E88-C760-264E-9266-04B1334E3A59}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{46024F63-9202-3A4A-A163-EF55AE6E2326}" name="Test Description" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{CB0A4D3D-327B-8948-9676-47A8A9ADBFE8}" name="in:miles" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{AC065743-B4AD-E044-B4C7-52E688AF15C6}" name="in:MPG" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{CA4C2539-BEF4-9142-9BB9-46E95ABF1149}" name="in:price" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{DA569DA6-C53A-E749-848E-C82C128C10F9}" name="out:cost"/>
+    <tableColumn id="1" xr3:uid="{46024F63-9202-3A4A-A163-EF55AE6E2326}" name="Test Description" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{CB0A4D3D-327B-8948-9676-47A8A9ADBFE8}" name="in:miles" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{AC065743-B4AD-E044-B4C7-52E688AF15C6}" name="in:MPG" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{CA4C2539-BEF4-9142-9BB9-46E95ABF1149}" name="in:price" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{DA569DA6-C53A-E749-848E-C82C128C10F9}" name="out:cost" dataDxfId="0">
+      <calculatedColumnFormula>(Table1[[#This Row],[in:miles]]/Table1[[#This Row],[in:MPG]])*Table1[[#This Row],[in:price]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -564,7 +566,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -606,35 +608,64 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
+      <c r="E2" s="3">
+        <f>(Table1[[#This Row],[in:miles]]/Table1[[#This Row],[in:MPG]])*Table1[[#This Row],[in:price]]</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <f>(Table1[[#This Row],[in:miles]]/Table1[[#This Row],[in:MPG]])*Table1[[#This Row],[in:price]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="17">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <f>(Table1[[#This Row],[in:miles]]/Table1[[#This Row],[in:MPG]])*Table1[[#This Row],[in:price]]</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="17">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <f>(Table1[[#This Row],[in:miles]]/Table1[[#This Row],[in:MPG]])*Table1[[#This Row],[in:price]]</f>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
